--- a/task1feb2022/temp/JanRd_2022_CP_OFGTZ.xlsx
+++ b/task1feb2022/temp/JanRd_2022_CP_OFGTZ.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\Adam feb 2023\task1\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4890BA14-D918-461F-9535-B600FDCE0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE15826-F037-4ED1-8EBD-3FD0486883B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hydrology_OFGTZ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="4">
   <si>
     <t>Site_Code</t>
   </si>
@@ -28,22 +28,16 @@
     <t>Collect Date (local)</t>
   </si>
   <si>
-    <t>Water Temperature (�C)</t>
-  </si>
-  <si>
-    <t>E = Estimate; W = Warning; P = Provisional</t>
-  </si>
-  <si>
     <t>JanRd_2022_CP</t>
   </si>
   <si>
-    <t>P</t>
+    <t>Water Temperature (degree C)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,11 +872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +886,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,15 +894,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>44708</v>
@@ -917,9 +908,9 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44709</v>
@@ -928,9 +919,9 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>44710</v>
@@ -939,9 +930,9 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>44711</v>
@@ -950,9 +941,9 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>44712</v>
@@ -961,9 +952,9 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>44713</v>
@@ -972,9 +963,9 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>44714</v>
@@ -983,9 +974,9 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>44715</v>
@@ -994,9 +985,9 @@
         <v>11.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>44716</v>
@@ -1005,9 +996,9 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>44717</v>
@@ -1016,9 +1007,9 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>44718</v>
@@ -1027,9 +1018,9 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>44719</v>
@@ -1038,9 +1029,9 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>44720</v>
@@ -1048,13 +1039,10 @@
       <c r="C14">
         <v>11.71</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>44721</v>
@@ -1062,13 +1050,10 @@
       <c r="C15">
         <v>11.39</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <v>44722</v>
@@ -1076,13 +1061,10 @@
       <c r="C16">
         <v>11.5</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
         <v>44723</v>
@@ -1090,13 +1072,10 @@
       <c r="C17">
         <v>11.65</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>44724</v>
@@ -1104,13 +1083,10 @@
       <c r="C18">
         <v>10.98</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>44725</v>
@@ -1118,13 +1094,10 @@
       <c r="C19">
         <v>10.31</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>44726</v>
@@ -1132,13 +1105,10 @@
       <c r="C20">
         <v>10.37</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>44727</v>
@@ -1146,13 +1116,10 @@
       <c r="C21">
         <v>10.54</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>44728</v>
@@ -1160,13 +1127,10 @@
       <c r="C22">
         <v>10.98</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>44729</v>
@@ -1174,13 +1138,10 @@
       <c r="C23">
         <v>10.6</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>44730</v>
@@ -1188,13 +1149,10 @@
       <c r="C24">
         <v>10.63</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>44731</v>
@@ -1202,13 +1160,10 @@
       <c r="C25">
         <v>10.83</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>44732</v>
@@ -1216,13 +1171,10 @@
       <c r="C26">
         <v>10.98</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>44733</v>
@@ -1230,13 +1182,10 @@
       <c r="C27">
         <v>11.89</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>44734</v>
@@ -1244,13 +1193,10 @@
       <c r="C28">
         <v>11.58</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>44735</v>
@@ -1258,13 +1204,10 @@
       <c r="C29">
         <v>12.24</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <v>44736</v>
@@ -1272,13 +1215,10 @@
       <c r="C30">
         <v>12.19</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
         <v>44737</v>
@@ -1286,13 +1226,10 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1">
         <v>44738</v>
@@ -1300,13 +1237,10 @@
       <c r="C32">
         <v>13.65</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>44739</v>
@@ -1314,13 +1248,10 @@
       <c r="C33">
         <v>14.22</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>44740</v>
@@ -1328,13 +1259,10 @@
       <c r="C34">
         <v>12.41</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>44741</v>
@@ -1342,13 +1270,10 @@
       <c r="C35">
         <v>11.43</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <v>44742</v>
@@ -1356,13 +1281,10 @@
       <c r="C36">
         <v>12.4</v>
       </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>44743</v>
@@ -1370,13 +1292,10 @@
       <c r="C37">
         <v>12.98</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1">
         <v>44744</v>
@@ -1384,13 +1303,10 @@
       <c r="C38">
         <v>11.94</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>44745</v>
@@ -1399,9 +1315,9 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
         <v>44746</v>
@@ -1410,9 +1326,9 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <v>44747</v>
@@ -1421,9 +1337,9 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1">
         <v>44748</v>
@@ -1432,9 +1348,9 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <v>44749</v>
@@ -1443,9 +1359,9 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
         <v>44750</v>
@@ -1454,9 +1370,9 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
         <v>44751</v>
@@ -1465,9 +1381,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
         <v>44752</v>
@@ -1475,13 +1391,10 @@
       <c r="C46">
         <v>13.72</v>
       </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1">
         <v>44753</v>
@@ -1490,9 +1403,9 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <v>44754</v>
@@ -1501,9 +1414,9 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>44755</v>
@@ -1512,9 +1425,9 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <v>44756</v>
@@ -1523,9 +1436,9 @@
         <v>14.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
         <v>44757</v>
@@ -1534,9 +1447,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1">
         <v>44758</v>
@@ -1545,9 +1458,9 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" s="1">
         <v>44759</v>
@@ -1556,9 +1469,9 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1">
         <v>44760</v>
@@ -1567,9 +1480,9 @@
         <v>13.02</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
         <v>44761</v>
@@ -1578,9 +1491,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1">
         <v>44762</v>
@@ -1589,9 +1502,9 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <v>44763</v>
@@ -1600,9 +1513,9 @@
         <v>15.17</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <v>44764</v>
@@ -1611,9 +1524,9 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>44765</v>
@@ -1622,9 +1535,9 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <v>44766</v>
@@ -1633,9 +1546,9 @@
         <v>14.26</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>44767</v>
@@ -1644,9 +1557,9 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>44768</v>
@@ -1655,9 +1568,9 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>44769</v>
@@ -1666,9 +1579,9 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <v>44770</v>
@@ -1676,13 +1589,10 @@
       <c r="C64">
         <v>15.81</v>
       </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <v>44771</v>
@@ -1690,13 +1600,10 @@
       <c r="C65">
         <v>15.94</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1">
         <v>44772</v>
@@ -1704,13 +1611,10 @@
       <c r="C66">
         <v>15.98</v>
       </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>44773</v>
@@ -1718,13 +1622,10 @@
       <c r="C67">
         <v>15.77</v>
       </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>44774</v>
@@ -1732,13 +1633,10 @@
       <c r="C68">
         <v>15.66</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>44775</v>
@@ -1746,13 +1644,10 @@
       <c r="C69">
         <v>15.16</v>
       </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <v>44776</v>
@@ -1760,13 +1655,10 @@
       <c r="C70">
         <v>14.6</v>
       </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>44777</v>
@@ -1774,13 +1666,10 @@
       <c r="C71">
         <v>13.87</v>
       </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <v>44778</v>
@@ -1788,13 +1677,10 @@
       <c r="C72">
         <v>13.52</v>
       </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1">
         <v>44779</v>
@@ -1802,13 +1688,10 @@
       <c r="C73">
         <v>14.77</v>
       </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1">
         <v>44780</v>
@@ -1816,13 +1699,10 @@
       <c r="C74">
         <v>15.31</v>
       </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>44781</v>
@@ -1831,9 +1711,9 @@
         <v>15.52</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>44782</v>
@@ -1842,9 +1722,9 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1">
         <v>44783</v>
@@ -1853,9 +1733,9 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>44784</v>
@@ -1864,9 +1744,9 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>44785</v>
@@ -1874,13 +1754,10 @@
       <c r="C79">
         <v>15.21</v>
       </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>44786</v>
@@ -1888,13 +1765,10 @@
       <c r="C80">
         <v>14.81</v>
       </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <v>44787</v>
@@ -1902,13 +1776,10 @@
       <c r="C81">
         <v>14.66</v>
       </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>44788</v>
@@ -1916,13 +1787,10 @@
       <c r="C82">
         <v>15.1</v>
       </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <v>44789</v>
@@ -1930,13 +1798,10 @@
       <c r="C83">
         <v>15.11</v>
       </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1">
         <v>44790</v>
@@ -1944,13 +1809,10 @@
       <c r="C84">
         <v>15.26</v>
       </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <v>44791</v>
@@ -1958,13 +1820,10 @@
       <c r="C85">
         <v>14.78</v>
       </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1">
         <v>44792</v>
@@ -1972,13 +1831,10 @@
       <c r="C86">
         <v>14.41</v>
       </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1">
         <v>44793</v>
@@ -1986,13 +1842,10 @@
       <c r="C87">
         <v>14.19</v>
       </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1">
         <v>44794</v>
@@ -2000,13 +1853,10 @@
       <c r="C88">
         <v>14.77</v>
       </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <v>44795</v>
@@ -2014,13 +1864,10 @@
       <c r="C89">
         <v>15.17</v>
       </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <v>44796</v>
@@ -2028,13 +1875,10 @@
       <c r="C90">
         <v>15.07</v>
       </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <v>44797</v>
@@ -2042,13 +1886,10 @@
       <c r="C91">
         <v>15.26</v>
       </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
         <v>44798</v>
@@ -2056,13 +1897,10 @@
       <c r="C92">
         <v>15.37</v>
       </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <v>44799</v>
@@ -2070,13 +1908,10 @@
       <c r="C93">
         <v>14.53</v>
       </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
         <v>44800</v>
@@ -2084,13 +1919,10 @@
       <c r="C94">
         <v>13.56</v>
       </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="1">
         <v>44801</v>
@@ -2098,13 +1930,10 @@
       <c r="C95">
         <v>13.77</v>
       </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <v>44802</v>
@@ -2113,9 +1942,9 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <v>44803</v>
@@ -2124,9 +1953,9 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
         <v>44804</v>
@@ -2135,9 +1964,9 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>44805</v>
@@ -2146,9 +1975,9 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <v>44806</v>
@@ -2157,9 +1986,9 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>44807</v>
@@ -2168,9 +1997,9 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1">
         <v>44808</v>
@@ -2179,9 +2008,9 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>44809</v>
@@ -2190,9 +2019,9 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>44810</v>
@@ -2201,9 +2030,9 @@
         <v>13.51</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>44811</v>
@@ -2212,9 +2041,9 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <v>44812</v>
@@ -2222,13 +2051,10 @@
       <c r="C106">
         <v>13.15</v>
       </c>
-      <c r="D106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>44813</v>
@@ -2236,13 +2062,10 @@
       <c r="C107">
         <v>12.93</v>
       </c>
-      <c r="D107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>44814</v>
@@ -2251,9 +2074,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>44815</v>
@@ -2262,9 +2085,9 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" s="1">
         <v>44816</v>
@@ -2273,9 +2096,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
         <v>44817</v>
@@ -2284,9 +2107,9 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1">
         <v>44818</v>

--- a/task1feb2022/temp/JanRd_2022_CP_OFGTZ.xlsx
+++ b/task1feb2022/temp/JanRd_2022_CP_OFGTZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE15826-F037-4ED1-8EBD-3FD0486883B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FF141-DBAC-4917-BDB9-3979E19F4F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>Site_Code</t>
   </si>
   <si>
-    <t>Collect Date (local)</t>
-  </si>
-  <si>
     <t>JanRd_2022_CP</t>
   </si>
   <si>
-    <t>Water Temperature (degree C)</t>
+    <t>Wtemp_degree_C</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -876,14 +876,14 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -891,15 +891,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44708</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44709</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44710</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>44711</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>44712</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>44713</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>44714</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>44715</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>44716</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>44717</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>44718</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>44719</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>44720</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>44721</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>44722</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>44723</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>44724</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>44725</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>44726</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>44727</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>44728</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>44729</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>44730</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>44731</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>44732</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>44733</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>44734</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>44735</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>44736</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>44737</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>44738</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>44739</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>44740</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>44741</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>44742</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>44743</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>44744</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>44745</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>44746</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>44747</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>44748</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>44749</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>44750</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>44751</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>44752</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>44753</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>44754</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>44755</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>44756</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>44757</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>44758</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>44759</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>44760</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>44761</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>44762</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>44763</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>44764</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>44765</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>44766</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>44767</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>44768</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>44769</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>44770</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>44771</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>44772</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>44773</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>44774</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>44775</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>44776</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>44777</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>44778</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>44779</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
         <v>44780</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>44781</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1">
         <v>44782</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>44783</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>44784</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1">
         <v>44785</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
         <v>44786</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
         <v>44787</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <v>44788</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>44789</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <v>44790</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>44791</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>44792</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
         <v>44793</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
         <v>44794</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <v>44795</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
         <v>44796</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>44797</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <v>44798</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
         <v>44799</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
         <v>44800</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
         <v>44801</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>44802</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
         <v>44803</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <v>44804</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>44805</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
         <v>44806</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
         <v>44807</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
         <v>44808</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>44809</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
         <v>44810</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>44811</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <v>44812</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>44813</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="1">
         <v>44814</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1">
         <v>44815</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1">
         <v>44816</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1">
         <v>44817</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <v>44818</v>
